--- a/KẾ TOÁN - THÁI HẰNG/KHO/KHO MỞ.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/KHO/KHO MỞ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T5" sheetId="4" r:id="rId1"/>
@@ -1404,36 +1404,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-viên soy, collagen nội tiết tố 60v</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="69">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -1637,9 +1613,6 @@
   </si>
   <si>
     <t>TỪ NGÀY…………..ĐẾN NGÀY ……………</t>
-  </si>
-  <si>
-    <t>Sữa N</t>
   </si>
   <si>
     <t>SỔ THEO DÕI KHO ………………..</t>
@@ -2166,7 +2139,70 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2198,69 +2234,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2593,11 +2566,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -2633,11 +2606,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
       <c r="F2" s="76"/>
@@ -2673,235 +2646,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="77"/>
       <c r="AG5" s="77"/>
       <c r="AH5" s="77"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="112" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="125" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="126" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="115" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="115"/>
       <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="78" t="s">
         <v>26</v>
       </c>
@@ -2988,7 +2961,7 @@
       </c>
       <c r="AF8" s="117"/>
       <c r="AG8" s="117"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -4077,71 +4050,71 @@
         <v>0</v>
       </c>
       <c r="E30" s="120"/>
-      <c r="F30" s="121">
+      <c r="F30" s="106">
         <f>SUM(F9:F28)-SUM(G9:G28)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122">
+      <c r="G30" s="106"/>
+      <c r="H30" s="121">
         <f>SUM(H9:H28)-SUM(I9:I28)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="122"/>
-      <c r="J30" s="121">
+      <c r="I30" s="121"/>
+      <c r="J30" s="106">
         <f>SUM(J9:J28)-SUM(K9:K28)</f>
         <v>1</v>
       </c>
-      <c r="K30" s="121"/>
-      <c r="L30" s="123">
+      <c r="K30" s="106"/>
+      <c r="L30" s="122">
         <f>SUM(L9:L28)-SUM(M9:M28)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="123"/>
-      <c r="N30" s="121">
+      <c r="M30" s="122"/>
+      <c r="N30" s="106">
         <f>SUM(N9:N28)-SUM(O9:O28)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="121"/>
-      <c r="P30" s="129">
+      <c r="O30" s="106"/>
+      <c r="P30" s="107">
         <f>SUM(P9:P28)-SUM(Q9:Q28)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="121">
+      <c r="Q30" s="107"/>
+      <c r="R30" s="106">
         <f>SUM(R9:R28)-SUM(S9:S28)</f>
         <v>2</v>
       </c>
-      <c r="S30" s="121"/>
-      <c r="T30" s="130">
+      <c r="S30" s="106"/>
+      <c r="T30" s="108">
         <f>SUM(T9:T28)-SUM(U9:U28)</f>
         <v>0</v>
       </c>
-      <c r="U30" s="130"/>
-      <c r="V30" s="121">
+      <c r="U30" s="108"/>
+      <c r="V30" s="106">
         <f>SUM(V9:V28)-SUM(W9:W28)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="121"/>
-      <c r="X30" s="131">
+      <c r="W30" s="106"/>
+      <c r="X30" s="109">
         <f>SUM(X9:X28)-SUM(Y9:Y28)</f>
         <v>5</v>
       </c>
-      <c r="Y30" s="131"/>
-      <c r="Z30" s="121">
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="106">
         <f>SUM(Z9:Z28)-SUM(AA9:AA28)</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="132">
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="110">
         <f>SUM(AB9:AB28)-SUM(AC9:AC28)</f>
         <v>3</v>
       </c>
-      <c r="AC30" s="132"/>
-      <c r="AD30" s="121">
+      <c r="AC30" s="110"/>
+      <c r="AD30" s="106">
         <f>SUM(AD9:AD28)-SUM(AE9:AE28)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="121"/>
+      <c r="AE30" s="106"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="9">
         <f t="shared" si="1"/>
@@ -4150,39 +4123,39 @@
       <c r="AH30" s="21"/>
     </row>
     <row r="31" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="133" t="s">
+      <c r="A31" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="134"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="134"/>
-      <c r="P31" s="134"/>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="135"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="112"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="112"/>
+      <c r="K31" s="112"/>
+      <c r="L31" s="112"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="112"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="113"/>
       <c r="AF31" s="22">
         <f>SUM(AF9:AF28)</f>
         <v>79</v>
@@ -4194,60 +4167,64 @@
       <c r="AH31" s="23"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="134"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
-      <c r="P32" s="134"/>
-      <c r="Q32" s="134"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="134"/>
-      <c r="T32" s="134"/>
-      <c r="U32" s="134"/>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="135"/>
-      <c r="AF32" s="127">
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="112"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="112"/>
+      <c r="W32" s="112"/>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="112"/>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="112"/>
+      <c r="AB32" s="112"/>
+      <c r="AC32" s="112"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="104">
         <f>AG31-AF31</f>
         <v>17</v>
       </c>
-      <c r="AG32" s="128"/>
+      <c r="AG32" s="105"/>
       <c r="AH32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="A31:AE31"/>
-    <mergeCell ref="A32:AE32"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AD7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
@@ -4264,22 +4241,18 @@
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AH3"/>
-    <mergeCell ref="A4:AH4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AG6"/>
-    <mergeCell ref="AH6:AH8"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="A31:AE31"/>
+    <mergeCell ref="A32:AE32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4309,11 +4282,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
       <c r="F1" s="54"/>
@@ -4349,11 +4322,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
@@ -4389,235 +4362,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="56"/>
       <c r="AG5" s="56"/>
       <c r="AH5" s="56"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="112" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="125" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="126" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="115" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="115"/>
       <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="57" t="s">
         <v>26</v>
       </c>
@@ -4704,7 +4677,7 @@
       </c>
       <c r="AF8" s="136"/>
       <c r="AG8" s="136"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -6531,71 +6504,71 @@
         <v>3</v>
       </c>
       <c r="E49" s="120"/>
-      <c r="F49" s="121">
+      <c r="F49" s="106">
         <f>SUM(F9:F48)-SUM(G9:G48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="121"/>
-      <c r="H49" s="122">
+      <c r="G49" s="106"/>
+      <c r="H49" s="121">
         <f>SUM(H9:H48)-SUM(I9:I48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="122"/>
-      <c r="J49" s="121">
+      <c r="I49" s="121"/>
+      <c r="J49" s="106">
         <f>SUM(J9:J48)-SUM(K9:K48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="121"/>
-      <c r="L49" s="123">
+      <c r="K49" s="106"/>
+      <c r="L49" s="122">
         <f>SUM(L9:L48)-SUM(M9:M48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="123"/>
-      <c r="N49" s="121">
+      <c r="M49" s="122"/>
+      <c r="N49" s="106">
         <f>SUM(N9:N48)-SUM(O9:O48)</f>
         <v>1</v>
       </c>
-      <c r="O49" s="121"/>
-      <c r="P49" s="129">
+      <c r="O49" s="106"/>
+      <c r="P49" s="107">
         <f>SUM(P9:P48)-SUM(Q9:Q48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="121">
+      <c r="Q49" s="107"/>
+      <c r="R49" s="106">
         <f>SUM(R9:R48)-SUM(S9:S48)</f>
         <v>2</v>
       </c>
-      <c r="S49" s="121"/>
-      <c r="T49" s="130">
+      <c r="S49" s="106"/>
+      <c r="T49" s="108">
         <f>SUM(T9:T48)-SUM(U9:U48)</f>
         <v>0</v>
       </c>
-      <c r="U49" s="130"/>
-      <c r="V49" s="121">
+      <c r="U49" s="108"/>
+      <c r="V49" s="106">
         <f>SUM(V9:V48)-SUM(W9:W48)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="121"/>
-      <c r="X49" s="131">
+      <c r="W49" s="106"/>
+      <c r="X49" s="109">
         <f>SUM(X9:X48)-SUM(Y9:Y48)</f>
         <v>4</v>
       </c>
-      <c r="Y49" s="131"/>
-      <c r="Z49" s="121">
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="106">
         <f>SUM(Z9:Z48)-SUM(AA9:AA48)</f>
         <v>3</v>
       </c>
-      <c r="AA49" s="121"/>
-      <c r="AB49" s="132">
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="110">
         <f>SUM(AB9:AB48)-SUM(AC9:AC48)</f>
         <v>3</v>
       </c>
-      <c r="AC49" s="132"/>
-      <c r="AD49" s="121">
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="106">
         <f>SUM(AD9:AD48)-SUM(AE9:AE48)</f>
         <v>0</v>
       </c>
-      <c r="AE49" s="121"/>
+      <c r="AE49" s="106"/>
       <c r="AF49" s="20"/>
       <c r="AG49" s="9">
         <f>D49+F49+H49+J49+L49+N49+P49+R49+T49+V49+X49+Z49+AB49+AD49</f>
@@ -6604,39 +6577,39 @@
       <c r="AH49" s="21"/>
     </row>
     <row r="50" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
-      <c r="N50" s="134"/>
-      <c r="O50" s="134"/>
-      <c r="P50" s="134"/>
-      <c r="Q50" s="134"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="134"/>
-      <c r="T50" s="134"/>
-      <c r="U50" s="134"/>
-      <c r="V50" s="134"/>
-      <c r="W50" s="134"/>
-      <c r="X50" s="134"/>
-      <c r="Y50" s="134"/>
-      <c r="Z50" s="134"/>
-      <c r="AA50" s="134"/>
-      <c r="AB50" s="134"/>
-      <c r="AC50" s="134"/>
-      <c r="AD50" s="134"/>
-      <c r="AE50" s="135"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="112"/>
+      <c r="T50" s="112"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="112"/>
+      <c r="X50" s="112"/>
+      <c r="Y50" s="112"/>
+      <c r="Z50" s="112"/>
+      <c r="AA50" s="112"/>
+      <c r="AB50" s="112"/>
+      <c r="AC50" s="112"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="113"/>
       <c r="AF50" s="22">
         <f>SUM(AF9:AF48)</f>
         <v>18</v>
@@ -6648,48 +6621,75 @@
       <c r="AH50" s="23"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
-      <c r="P51" s="134"/>
-      <c r="Q51" s="134"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="134"/>
-      <c r="T51" s="134"/>
-      <c r="U51" s="134"/>
-      <c r="V51" s="134"/>
-      <c r="W51" s="134"/>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="134"/>
-      <c r="Z51" s="134"/>
-      <c r="AA51" s="134"/>
-      <c r="AB51" s="134"/>
-      <c r="AC51" s="134"/>
-      <c r="AD51" s="134"/>
-      <c r="AE51" s="135"/>
-      <c r="AF51" s="127">
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="112"/>
+      <c r="H51" s="112"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="112"/>
+      <c r="K51" s="112"/>
+      <c r="L51" s="112"/>
+      <c r="M51" s="112"/>
+      <c r="N51" s="112"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="112"/>
+      <c r="R51" s="112"/>
+      <c r="S51" s="112"/>
+      <c r="T51" s="112"/>
+      <c r="U51" s="112"/>
+      <c r="V51" s="112"/>
+      <c r="W51" s="112"/>
+      <c r="X51" s="112"/>
+      <c r="Y51" s="112"/>
+      <c r="Z51" s="112"/>
+      <c r="AA51" s="112"/>
+      <c r="AB51" s="112"/>
+      <c r="AC51" s="112"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="113"/>
+      <c r="AF51" s="104">
         <f>AG50-AF50</f>
         <v>16</v>
       </c>
-      <c r="AG51" s="128"/>
+      <c r="AG51" s="105"/>
       <c r="AH51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="A50:AE50"/>
+    <mergeCell ref="A51:AE51"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -6706,33 +6706,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="A50:AE50"/>
-    <mergeCell ref="A51:AE51"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -6743,7 +6716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -6760,11 +6733,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="82"/>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -6800,11 +6773,11 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -6840,235 +6813,235 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="84"/>
       <c r="AG5" s="84"/>
       <c r="AH5" s="84"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="104" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="112" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="125" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="126" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="115" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
+      <c r="AE7" s="115"/>
       <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
       <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AH7" s="104"/>
+      <c r="AH7" s="115"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="104"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="85" t="s">
         <v>26</v>
       </c>
@@ -7155,7 +7128,7 @@
       </c>
       <c r="AF8" s="136"/>
       <c r="AG8" s="136"/>
-      <c r="AH8" s="104"/>
+      <c r="AH8" s="115"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -8740,71 +8713,71 @@
         <v>0</v>
       </c>
       <c r="E44" s="120"/>
-      <c r="F44" s="121">
+      <c r="F44" s="106">
         <f>SUM(F9:F43)-SUM(G9:G43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="121"/>
-      <c r="H44" s="122">
+      <c r="G44" s="106"/>
+      <c r="H44" s="121">
         <f>SUM(H9:H43)-SUM(I9:I43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="122"/>
-      <c r="J44" s="121">
+      <c r="I44" s="121"/>
+      <c r="J44" s="106">
         <f>SUM(J9:J43)-SUM(K9:K43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="121"/>
-      <c r="L44" s="123">
+      <c r="K44" s="106"/>
+      <c r="L44" s="122">
         <f>SUM(L9:L43)-SUM(M9:M43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="123"/>
-      <c r="N44" s="121">
+      <c r="M44" s="122"/>
+      <c r="N44" s="106">
         <f>SUM(N9:N43)-SUM(O9:O43)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="121"/>
-      <c r="P44" s="129">
+      <c r="O44" s="106"/>
+      <c r="P44" s="107">
         <f>SUM(P9:P43)-SUM(Q9:Q43)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="121">
+      <c r="Q44" s="107"/>
+      <c r="R44" s="106">
         <f>SUM(R9:R43)-SUM(S9:S43)</f>
         <v>0</v>
       </c>
-      <c r="S44" s="121"/>
-      <c r="T44" s="130">
+      <c r="S44" s="106"/>
+      <c r="T44" s="108">
         <f>SUM(T9:T43)-SUM(U9:U43)</f>
         <v>0</v>
       </c>
-      <c r="U44" s="130"/>
-      <c r="V44" s="121">
+      <c r="U44" s="108"/>
+      <c r="V44" s="106">
         <f>SUM(V9:V43)-SUM(W9:W43)</f>
         <v>0</v>
       </c>
-      <c r="W44" s="121"/>
-      <c r="X44" s="131">
+      <c r="W44" s="106"/>
+      <c r="X44" s="109">
         <f>SUM(X9:X43)-SUM(Y9:Y43)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="131"/>
-      <c r="Z44" s="121">
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="106">
         <f>SUM(Z9:Z43)-SUM(AA9:AA43)</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="121"/>
-      <c r="AB44" s="132">
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="110">
         <f>SUM(AB9:AB43)-SUM(AC9:AC43)</f>
         <v>0</v>
       </c>
-      <c r="AC44" s="132"/>
-      <c r="AD44" s="121">
+      <c r="AC44" s="110"/>
+      <c r="AD44" s="106">
         <f>SUM(AD9:AD43)-SUM(AE9:AE43)</f>
         <v>0</v>
       </c>
-      <c r="AE44" s="121"/>
+      <c r="AE44" s="106"/>
       <c r="AF44" s="20"/>
       <c r="AG44" s="9">
         <f>D44+F44+H44+J44+L44+N44+P44+R44+T44+V44+X44+Z44+AB44+AD44</f>
@@ -8813,39 +8786,39 @@
       <c r="AH44" s="21"/>
     </row>
     <row r="45" spans="1:34" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
-      <c r="O45" s="134"/>
-      <c r="P45" s="134"/>
-      <c r="Q45" s="134"/>
-      <c r="R45" s="134"/>
-      <c r="S45" s="134"/>
-      <c r="T45" s="134"/>
-      <c r="U45" s="134"/>
-      <c r="V45" s="134"/>
-      <c r="W45" s="134"/>
-      <c r="X45" s="134"/>
-      <c r="Y45" s="134"/>
-      <c r="Z45" s="134"/>
-      <c r="AA45" s="134"/>
-      <c r="AB45" s="134"/>
-      <c r="AC45" s="134"/>
-      <c r="AD45" s="134"/>
-      <c r="AE45" s="135"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="112"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="112"/>
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="112"/>
+      <c r="Z45" s="112"/>
+      <c r="AA45" s="112"/>
+      <c r="AB45" s="112"/>
+      <c r="AC45" s="112"/>
+      <c r="AD45" s="112"/>
+      <c r="AE45" s="113"/>
       <c r="AF45" s="22">
         <f>SUM(AF9:AF43)</f>
         <v>38</v>
@@ -8857,48 +8830,75 @@
       <c r="AH45" s="23"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="134"/>
-      <c r="O46" s="134"/>
-      <c r="P46" s="134"/>
-      <c r="Q46" s="134"/>
-      <c r="R46" s="134"/>
-      <c r="S46" s="134"/>
-      <c r="T46" s="134"/>
-      <c r="U46" s="134"/>
-      <c r="V46" s="134"/>
-      <c r="W46" s="134"/>
-      <c r="X46" s="134"/>
-      <c r="Y46" s="134"/>
-      <c r="Z46" s="134"/>
-      <c r="AA46" s="134"/>
-      <c r="AB46" s="134"/>
-      <c r="AC46" s="134"/>
-      <c r="AD46" s="134"/>
-      <c r="AE46" s="135"/>
-      <c r="AF46" s="127">
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
+      <c r="L46" s="112"/>
+      <c r="M46" s="112"/>
+      <c r="N46" s="112"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+      <c r="Q46" s="112"/>
+      <c r="R46" s="112"/>
+      <c r="S46" s="112"/>
+      <c r="T46" s="112"/>
+      <c r="U46" s="112"/>
+      <c r="V46" s="112"/>
+      <c r="W46" s="112"/>
+      <c r="X46" s="112"/>
+      <c r="Y46" s="112"/>
+      <c r="Z46" s="112"/>
+      <c r="AA46" s="112"/>
+      <c r="AB46" s="112"/>
+      <c r="AC46" s="112"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="113"/>
+      <c r="AF46" s="104">
         <f>AG45-AF45</f>
         <v>0</v>
       </c>
-      <c r="AG46" s="128"/>
+      <c r="AG46" s="105"/>
       <c r="AH46" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="A45:AE45"/>
+    <mergeCell ref="A46:AE46"/>
+    <mergeCell ref="AF46:AG46"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -8915,33 +8915,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="A45:AE45"/>
-    <mergeCell ref="A46:AE46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8950,10 +8923,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ42"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8961,19 +8934,19 @@
     <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="5" customWidth="1"/>
-    <col min="4" max="33" width="3.28515625" style="5" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" style="5" customWidth="1"/>
-    <col min="35" max="35" width="12.7109375" style="5" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="5" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="31" width="3.28515625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="5" customWidth="1"/>
+    <col min="34" max="34" width="9.7109375" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
       <c r="F1" s="94"/>
@@ -9003,18 +8976,16 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="3"/>
+      <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
       <c r="F2" s="95"/>
@@ -9044,254 +9015,240 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="2"/>
-      <c r="AF2" s="7"/>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="107" t="s">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="107"/>
-      <c r="AH4" s="107"/>
-      <c r="AI4" s="107"/>
-      <c r="AJ4" s="107"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="128"/>
+      <c r="U4" s="128"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="128"/>
+      <c r="U5" s="128"/>
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="128"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="128"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="128"/>
+      <c r="AE5" s="128"/>
       <c r="AF5" s="96"/>
       <c r="AG5" s="96"/>
       <c r="AH5" s="96"/>
-      <c r="AI5" s="96"/>
-      <c r="AJ5" s="96"/>
-    </row>
-    <row r="6" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110"/>
-      <c r="X6" s="110"/>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="110"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="110"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="104" t="s">
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="131"/>
+      <c r="Q6" s="131"/>
+      <c r="R6" s="131"/>
+      <c r="S6" s="131"/>
+      <c r="T6" s="131"/>
+      <c r="U6" s="131"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="131"/>
+      <c r="X6" s="131"/>
+      <c r="Y6" s="131"/>
+      <c r="Z6" s="131"/>
+      <c r="AA6" s="131"/>
+      <c r="AB6" s="131"/>
+      <c r="AC6" s="131"/>
+      <c r="AD6" s="131"/>
+      <c r="AE6" s="131"/>
+      <c r="AF6" s="131"/>
+      <c r="AG6" s="132"/>
+      <c r="AH6" s="115" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="117"/>
       <c r="B7" s="137"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="112" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="104" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="113" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="104" t="s">
+      <c r="I7" s="134"/>
+      <c r="J7" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="114" t="s">
+      <c r="K7" s="115"/>
+      <c r="L7" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="114"/>
-      <c r="N7" s="104" t="s">
+      <c r="M7" s="135"/>
+      <c r="N7" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="124" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="124"/>
-      <c r="R7" s="104" t="s">
+      <c r="Q7" s="123"/>
+      <c r="R7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="104"/>
-      <c r="T7" s="125" t="s">
+      <c r="S7" s="115"/>
+      <c r="T7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="125"/>
-      <c r="V7" s="104" t="s">
+      <c r="U7" s="124"/>
+      <c r="V7" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="W7" s="104"/>
-      <c r="X7" s="126" t="s">
+      <c r="W7" s="115"/>
+      <c r="X7" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="104" t="s">
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="115" t="s">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="115"/>
-      <c r="AD7" s="104" t="s">
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="116" t="s">
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="AI7" s="116" t="s">
+      <c r="AG7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="AJ7" s="104"/>
-    </row>
-    <row r="8" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH7" s="115"/>
+    </row>
+    <row r="8" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136"/>
       <c r="B8" s="137"/>
-      <c r="C8" s="104"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="97" t="s">
         <v>26</v>
       </c>
@@ -9376,17 +9333,11 @@
       <c r="AE8" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG8" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH8" s="136"/>
-      <c r="AI8" s="136"/>
-      <c r="AJ8" s="104"/>
-    </row>
-    <row r="9" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="136"/>
+      <c r="AH8" s="115"/>
+    </row>
+    <row r="9" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
@@ -9421,10 +9372,8 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-    </row>
-    <row r="10" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -9459,10 +9408,8 @@
       <c r="AF10" s="14"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-    </row>
-    <row r="11" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -9497,10 +9444,8 @@
       <c r="AF11" s="14"/>
       <c r="AG11" s="14"/>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-    </row>
-    <row r="12" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -9535,10 +9480,8 @@
       <c r="AF12" s="14"/>
       <c r="AG12" s="14"/>
       <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-    </row>
-    <row r="13" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -9573,10 +9516,8 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
       <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-    </row>
-    <row r="14" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="15"/>
       <c r="C14" s="92"/>
@@ -9608,13 +9549,11 @@
       <c r="AC14" s="36"/>
       <c r="AD14" s="16"/>
       <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
       <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-    </row>
-    <row r="15" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -9646,13 +9585,11 @@
       <c r="AC15" s="36"/>
       <c r="AD15" s="16"/>
       <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-    </row>
-    <row r="16" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
@@ -9684,13 +9621,11 @@
       <c r="AC16" s="36"/>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
       <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-    </row>
-    <row r="17" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -9722,13 +9657,11 @@
       <c r="AC17" s="35"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="14"/>
-    </row>
-    <row r="18" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="14"/>
+    </row>
+    <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -9760,13 +9693,11 @@
       <c r="AC18" s="35"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="14"/>
-    </row>
-    <row r="19" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="14"/>
+    </row>
+    <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -9798,13 +9729,11 @@
       <c r="AC19" s="35"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="14"/>
-    </row>
-    <row r="20" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="14"/>
+    </row>
+    <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -9836,13 +9765,11 @@
       <c r="AC20" s="35"/>
       <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="14"/>
-    </row>
-    <row r="21" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="14"/>
+    </row>
+    <row r="21" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -9874,13 +9801,11 @@
       <c r="AC21" s="35"/>
       <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="14"/>
-    </row>
-    <row r="22" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="14"/>
+    </row>
+    <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -9912,13 +9837,11 @@
       <c r="AC22" s="35"/>
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="14"/>
-    </row>
-    <row r="23" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -9950,13 +9873,11 @@
       <c r="AC23" s="35"/>
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="14"/>
-    </row>
-    <row r="24" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="14"/>
+    </row>
+    <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -9988,13 +9909,11 @@
       <c r="AC24" s="35"/>
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="14"/>
-    </row>
-    <row r="25" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="14"/>
+    </row>
+    <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -10026,13 +9945,11 @@
       <c r="AC25" s="35"/>
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="14"/>
-    </row>
-    <row r="26" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="14"/>
+    </row>
+    <row r="26" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -10064,13 +9981,11 @@
       <c r="AC26" s="35"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="14"/>
-    </row>
-    <row r="27" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="14"/>
+    </row>
+    <row r="27" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -10102,13 +10017,11 @@
       <c r="AC27" s="35"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="14"/>
-    </row>
-    <row r="28" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="14"/>
+    </row>
+    <row r="28" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -10140,13 +10053,11 @@
       <c r="AC28" s="35"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="14"/>
-    </row>
-    <row r="29" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="14"/>
+    </row>
+    <row r="29" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -10178,13 +10089,11 @@
       <c r="AC29" s="35"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="14"/>
-    </row>
-    <row r="30" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="14"/>
+    </row>
+    <row r="30" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -10216,13 +10125,11 @@
       <c r="AC30" s="35"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="14"/>
-    </row>
-    <row r="31" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="14"/>
+    </row>
+    <row r="31" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -10254,13 +10161,11 @@
       <c r="AC31" s="35"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="14"/>
-    </row>
-    <row r="32" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="14"/>
+    </row>
+    <row r="32" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -10292,13 +10197,11 @@
       <c r="AC32" s="35"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="14"/>
-    </row>
-    <row r="33" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="14"/>
+    </row>
+    <row r="33" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -10330,13 +10233,11 @@
       <c r="AC33" s="35"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="14"/>
-    </row>
-    <row r="34" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="14"/>
+    </row>
+    <row r="34" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -10368,13 +10269,11 @@
       <c r="AC34" s="35"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="14"/>
-    </row>
-    <row r="35" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="14"/>
+    </row>
+    <row r="35" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -10406,13 +10305,11 @@
       <c r="AC35" s="35"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="14"/>
-    </row>
-    <row r="36" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="14"/>
+    </row>
+    <row r="36" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -10444,13 +10341,11 @@
       <c r="AC36" s="35"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="14"/>
-    </row>
-    <row r="37" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="14"/>
+    </row>
+    <row r="37" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -10482,13 +10377,11 @@
       <c r="AC37" s="35"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="14"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="14"/>
-    </row>
-    <row r="38" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="14"/>
+    </row>
+    <row r="38" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
@@ -10520,13 +10413,11 @@
       <c r="AC38" s="35"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="14"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="14"/>
-    </row>
-    <row r="39" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="14"/>
+    </row>
+    <row r="39" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
@@ -10558,13 +10449,11 @@
       <c r="AC39" s="35"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="14"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="14"/>
-    </row>
-    <row r="40" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="14"/>
+    </row>
+    <row r="40" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
@@ -10596,13 +10485,11 @@
       <c r="AC40" s="35"/>
       <c r="AD40" s="14"/>
       <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="14"/>
-    </row>
-    <row r="41" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="14"/>
+    </row>
+    <row r="41" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
@@ -10634,13 +10521,11 @@
       <c r="AC41" s="36"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="16"/>
-    </row>
-    <row r="42" spans="1:36" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="16"/>
+    </row>
+    <row r="42" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
@@ -10672,19 +10557,27 @@
       <c r="AC42" s="36"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="16"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A5:AE5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:AI6"/>
-    <mergeCell ref="AJ6:AJ8"/>
+    <mergeCell ref="D6:AG6"/>
+    <mergeCell ref="AH6:AH8"/>
     <mergeCell ref="Z7:AA7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -10696,17 +10589,6 @@
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="V7:W7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:AJ3"/>
-    <mergeCell ref="A4:AJ4"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AH7:AH8"/>
   </mergeCells>
   <pageMargins left="0.27" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
